--- a/Distribution/Sudoku.xlsx
+++ b/Distribution/Sudoku.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\ACQ\ACQ.Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\ACQ\Distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -560,7 +560,7 @@
   <dimension ref="B2:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -603,54 +603,54 @@
       <c r="C4" s="2" t="str">
         <v/>
       </c>
-      <c r="D4" s="3" t="str">
-        <v/>
+      <c r="D4" s="3">
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="str">
         <v/>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
+      <c r="G4" s="3" t="str">
+        <v/>
       </c>
       <c r="H4" s="1" t="str">
         <v/>
       </c>
-      <c r="I4" s="2">
-        <v>9</v>
-      </c>
-      <c r="J4" s="3" t="str">
-        <v/>
+      <c r="I4" s="2" t="str">
+        <v/>
+      </c>
+      <c r="J4" s="3">
+        <v>8</v>
       </c>
       <c r="L4" s="1">
         <f t="array" ref="L4:T12">_xll.acq_sudoku_solve(B4:J12)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M4" s="2">
         <v>4</v>
       </c>
       <c r="N4" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P4" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R4" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S4" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T4" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V4" t="s">
         <v>3</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="str">
         <v/>
@@ -671,60 +671,60 @@
         <v/>
       </c>
       <c r="E5" s="4">
-        <v>6</v>
-      </c>
-      <c r="F5" s="5" t="str">
-        <v/>
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>9</v>
       </c>
       <c r="G5" s="6" t="str">
         <v/>
       </c>
-      <c r="H5" s="4">
-        <v>1</v>
+      <c r="H5" s="4" t="str">
+        <v/>
       </c>
       <c r="I5" s="5" t="str">
         <v/>
       </c>
-      <c r="J5" s="6" t="str">
-        <v/>
+      <c r="J5" s="6">
+        <v>2</v>
       </c>
       <c r="L5" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M5" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N5" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O5" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P5" s="5">
         <v>9</v>
       </c>
       <c r="Q5" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R5" s="4">
         <v>1</v>
       </c>
       <c r="S5" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T5" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="7" t="str">
         <v/>
       </c>
-      <c r="C6" s="8" t="str">
-        <v/>
+      <c r="C6" s="8">
+        <v>3</v>
       </c>
       <c r="D6" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="7" t="str">
         <v/>
@@ -742,34 +742,34 @@
         <v/>
       </c>
       <c r="J6" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" s="7">
         <v>2</v>
       </c>
       <c r="M6" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N6" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O6" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P6" s="8">
         <v>5</v>
       </c>
       <c r="Q6" s="9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R6" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S6" s="8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T6" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.35">
@@ -783,7 +783,7 @@
         <v/>
       </c>
       <c r="E7" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="str">
         <v/>
@@ -791,97 +791,97 @@
       <c r="G7" s="3" t="str">
         <v/>
       </c>
-      <c r="H7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="I7" s="2">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3" t="str">
-        <v/>
+      <c r="H7" s="1">
+        <v>9</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <v/>
+      </c>
+      <c r="J7" s="3">
+        <v>6</v>
       </c>
       <c r="L7" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M7" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P7" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R7" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S7" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T7" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="str">
-        <v/>
+      <c r="B8" s="4">
+        <v>1</v>
       </c>
       <c r="C8" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" s="6">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G8" s="6">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F8" s="5">
+        <v>7</v>
+      </c>
+      <c r="G8" s="6" t="str">
+        <v/>
       </c>
       <c r="H8" s="4" t="str">
         <v/>
       </c>
-      <c r="I8" s="5" t="str">
-        <v/>
+      <c r="I8" s="5">
+        <v>8</v>
       </c>
       <c r="J8" s="6" t="str">
         <v/>
       </c>
       <c r="L8" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M8" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N8" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O8" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P8" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R8" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S8" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T8" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -891,8 +891,8 @@
       <c r="C9" s="8" t="str">
         <v/>
       </c>
-      <c r="D9" s="9">
-        <v>5</v>
+      <c r="D9" s="9" t="str">
+        <v/>
       </c>
       <c r="E9" s="7" t="str">
         <v/>
@@ -900,8 +900,8 @@
       <c r="F9" s="8" t="str">
         <v/>
       </c>
-      <c r="G9" s="9">
-        <v>9</v>
+      <c r="G9" s="9" t="str">
+        <v/>
       </c>
       <c r="H9" s="7" t="str">
         <v/>
@@ -909,23 +909,23 @@
       <c r="I9" s="8" t="str">
         <v/>
       </c>
-      <c r="J9" s="9">
-        <v>6</v>
+      <c r="J9" s="9" t="str">
+        <v/>
       </c>
       <c r="L9" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M9" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N9" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O9" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P9" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q9" s="9">
         <v>9</v>
@@ -934,15 +934,15 @@
         <v>7</v>
       </c>
       <c r="S9" s="8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T9" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="str">
-        <v/>
+      <c r="B10" s="1">
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="str">
         <v/>
@@ -950,64 +950,64 @@
       <c r="D10" s="3" t="str">
         <v/>
       </c>
-      <c r="E10" s="1">
-        <v>5</v>
+      <c r="E10" s="1" t="str">
+        <v/>
       </c>
       <c r="F10" s="2" t="str">
         <v/>
       </c>
-      <c r="G10" s="3" t="str">
-        <v/>
+      <c r="G10" s="3">
+        <v>5</v>
       </c>
       <c r="H10" s="1" t="str">
         <v/>
       </c>
-      <c r="I10" s="2" t="str">
-        <v/>
-      </c>
-      <c r="J10" s="3" t="str">
-        <v/>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3</v>
       </c>
       <c r="L10" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M10" s="2">
         <v>8</v>
       </c>
       <c r="N10" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O10" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P10" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q10" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R10" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S10" s="2">
         <v>1</v>
       </c>
       <c r="T10" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="str">
         <v/>
       </c>
-      <c r="C11" s="5">
-        <v>6</v>
+      <c r="C11" s="5" t="str">
+        <v/>
       </c>
       <c r="D11" s="6" t="str">
         <v/>
       </c>
-      <c r="E11" s="4" t="str">
-        <v/>
+      <c r="E11" s="4">
+        <v>9</v>
       </c>
       <c r="F11" s="5" t="str">
         <v/>
@@ -1018,46 +1018,46 @@
       <c r="H11" s="4" t="str">
         <v/>
       </c>
-      <c r="I11" s="5">
-        <v>7</v>
-      </c>
-      <c r="J11" s="6">
-        <v>3</v>
+      <c r="I11" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J11" s="6" t="str">
+        <v/>
       </c>
       <c r="L11" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M11" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N11" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O11" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P11" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R11" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S11" s="5">
         <v>7</v>
       </c>
       <c r="T11" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="7" t="str">
         <v/>
       </c>
-      <c r="C12" s="8" t="str">
-        <v/>
+      <c r="C12" s="8">
+        <v>2</v>
       </c>
       <c r="D12" s="9" t="str">
         <v/>
@@ -1065,14 +1065,14 @@
       <c r="E12" s="7" t="str">
         <v/>
       </c>
-      <c r="F12" s="8">
-        <v>7</v>
+      <c r="F12" s="8" t="str">
+        <v/>
       </c>
       <c r="G12" s="9" t="str">
         <v/>
       </c>
       <c r="H12" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I12" s="8" t="str">
         <v/>
@@ -1081,31 +1081,31 @@
         <v/>
       </c>
       <c r="L12" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M12" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N12" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O12" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P12" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q12" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R12" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S12" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T12" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.35">
@@ -1177,57 +1177,57 @@
         <f t="array" ref="B16:J24">_xll.acq_sudoku_generate(W17)</f>
         <v/>
       </c>
-      <c r="C16" s="2" t="str">
-        <v/>
-      </c>
-      <c r="D16" s="3" t="str">
-        <v/>
+      <c r="C16" s="2">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4</v>
       </c>
       <c r="E16" s="1" t="str">
         <v/>
       </c>
-      <c r="F16" s="2">
-        <v>7</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <v/>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2" t="str">
-        <v/>
+      <c r="F16" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G16" s="3">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <v/>
+      </c>
+      <c r="I16" s="2">
+        <v>5</v>
       </c>
       <c r="J16" s="3" t="str">
         <v/>
       </c>
       <c r="L16" s="1">
         <f t="array" ref="L16:T24">_xll.acq_sudoku_solve(B16:J24)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M16" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N16" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P16" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R16" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S16" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V16" t="s">
         <v>3</v>
@@ -1241,56 +1241,56 @@
       <c r="B17" s="4" t="str">
         <v/>
       </c>
-      <c r="C17" s="5">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="str">
-        <v/>
-      </c>
-      <c r="E17" s="4" t="str">
-        <v/>
+      <c r="C17" s="5" t="str">
+        <v/>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>6</v>
       </c>
       <c r="F17" s="5" t="str">
         <v/>
       </c>
-      <c r="G17" s="6" t="str">
-        <v/>
+      <c r="G17" s="6">
+        <v>7</v>
       </c>
       <c r="H17" s="4" t="str">
         <v/>
       </c>
-      <c r="I17" s="5">
-        <v>5</v>
+      <c r="I17" s="5" t="str">
+        <v/>
       </c>
       <c r="J17" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N17" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O17" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P17" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R17" s="4">
         <v>3</v>
       </c>
       <c r="S17" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T17" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="V17" t="s">
         <v>7</v>
@@ -1306,17 +1306,17 @@
       <c r="C18" s="8" t="str">
         <v/>
       </c>
-      <c r="D18" s="9">
-        <v>4</v>
-      </c>
-      <c r="E18" s="7">
-        <v>3</v>
+      <c r="D18" s="9" t="str">
+        <v/>
+      </c>
+      <c r="E18" s="7" t="str">
+        <v/>
       </c>
       <c r="F18" s="8" t="str">
         <v/>
       </c>
-      <c r="G18" s="9">
-        <v>9</v>
+      <c r="G18" s="9" t="str">
+        <v/>
       </c>
       <c r="H18" s="7" t="str">
         <v/>
@@ -1328,95 +1328,95 @@
         <v/>
       </c>
       <c r="L18" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M18" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N18" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O18" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P18" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R18" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S18" s="8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T18" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="str">
         <v/>
       </c>
-      <c r="C19" s="2">
-        <v>3</v>
-      </c>
-      <c r="D19" s="3">
-        <v>7</v>
+      <c r="C19" s="2" t="str">
+        <v/>
+      </c>
+      <c r="D19" s="3" t="str">
+        <v/>
       </c>
       <c r="E19" s="1" t="str">
         <v/>
       </c>
-      <c r="F19" s="2">
-        <v>5</v>
+      <c r="F19" s="2" t="str">
+        <v/>
       </c>
       <c r="G19" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1" t="str">
         <v/>
       </c>
-      <c r="I19" s="2">
-        <v>4</v>
+      <c r="I19" s="2" t="str">
+        <v/>
       </c>
       <c r="J19" s="3" t="str">
         <v/>
       </c>
       <c r="L19" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" s="3">
         <v>7</v>
       </c>
       <c r="O19" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P19" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q19" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R19" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S19" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T19" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B20" s="4" t="str">
-        <v/>
+      <c r="B20" s="4">
+        <v>8</v>
       </c>
       <c r="C20" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20" s="6" t="str">
         <v/>
@@ -1424,11 +1424,11 @@
       <c r="E20" s="4" t="str">
         <v/>
       </c>
-      <c r="F20" s="5">
-        <v>3</v>
-      </c>
-      <c r="G20" s="6" t="str">
-        <v/>
+      <c r="F20" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G20" s="6">
+        <v>3</v>
       </c>
       <c r="H20" s="4" t="str">
         <v/>
@@ -1437,48 +1437,48 @@
         <v/>
       </c>
       <c r="J20" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L20" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M20" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N20" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O20" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P20" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q20" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R20" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S20" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T20" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="7" t="str">
         <v/>
       </c>
-      <c r="C21" s="8">
-        <v>9</v>
+      <c r="C21" s="8" t="str">
+        <v/>
       </c>
       <c r="D21" s="9" t="str">
         <v/>
       </c>
       <c r="E21" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F21" s="8" t="str">
         <v/>
@@ -1487,7 +1487,7 @@
         <v/>
       </c>
       <c r="H21" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I21" s="8" t="str">
         <v/>
@@ -1496,39 +1496,39 @@
         <v/>
       </c>
       <c r="L21" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M21" s="8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N21" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O21" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P21" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q21" s="9">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R21" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S21" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T21" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="str">
         <v/>
       </c>
-      <c r="C22" s="2" t="str">
-        <v/>
+      <c r="C22" s="2">
+        <v>1</v>
       </c>
       <c r="D22" s="3" t="str">
         <v/>
@@ -1542,41 +1542,41 @@
       <c r="G22" s="3" t="str">
         <v/>
       </c>
-      <c r="H22" s="1">
-        <v>2</v>
+      <c r="H22" s="1" t="str">
+        <v/>
       </c>
       <c r="I22" s="2" t="str">
         <v/>
       </c>
-      <c r="J22" s="3">
-        <v>5</v>
+      <c r="J22" s="3" t="str">
+        <v/>
       </c>
       <c r="L22" s="1">
         <v>9</v>
       </c>
       <c r="M22" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N22" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O22" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P22" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R22" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S22" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T22" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.35">
@@ -1586,109 +1586,109 @@
       <c r="C23" s="5" t="str">
         <v/>
       </c>
-      <c r="D23" s="6" t="str">
-        <v/>
+      <c r="D23" s="6">
+        <v>6</v>
       </c>
       <c r="E23" s="4" t="str">
         <v/>
       </c>
-      <c r="F23" s="5" t="str">
-        <v/>
-      </c>
-      <c r="G23" s="6" t="str">
-        <v/>
-      </c>
-      <c r="H23" s="4" t="str">
-        <v/>
-      </c>
-      <c r="I23" s="5">
-        <v>1</v>
+      <c r="F23" s="5">
+        <v>3</v>
+      </c>
+      <c r="G23" s="6">
+        <v>5</v>
+      </c>
+      <c r="H23" s="4">
+        <v>9</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <v/>
       </c>
       <c r="J23" s="6" t="str">
         <v/>
       </c>
       <c r="L23" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M23" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N23" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O23" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P23" s="5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R23" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S23" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T23" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="7">
-        <v>6</v>
+      <c r="B24" s="7" t="str">
+        <v/>
       </c>
       <c r="C24" s="8" t="str">
         <v/>
       </c>
       <c r="D24" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E24" s="7" t="str">
         <v/>
       </c>
-      <c r="F24" s="8">
-        <v>2</v>
+      <c r="F24" s="8" t="str">
+        <v/>
       </c>
       <c r="G24" s="9" t="str">
         <v/>
       </c>
-      <c r="H24" s="7">
-        <v>4</v>
-      </c>
-      <c r="I24" s="8" t="str">
-        <v/>
+      <c r="H24" s="7" t="str">
+        <v/>
+      </c>
+      <c r="I24" s="8">
+        <v>8</v>
       </c>
       <c r="J24" s="9" t="str">
         <v/>
       </c>
       <c r="L24" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M24" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N24" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O24" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P24" s="8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q24" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R24" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S24" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T24" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">

--- a/Distribution/Sudoku.xlsx
+++ b/Distribution/Sudoku.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\ACQ\Distribution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ACQ\Distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9AEC08-FDD8-4FCE-AFF7-BCD219F4E83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21630" windowHeight="9840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -53,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -556,21 +564,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="10" width="3.1796875" customWidth="1"/>
-    <col min="12" max="20" width="3.1796875" customWidth="1"/>
-    <col min="22" max="22" width="26.26953125" customWidth="1"/>
+    <col min="2" max="10" width="3.140625" customWidth="1"/>
+    <col min="12" max="20" width="3.140625" customWidth="1"/>
+    <col min="22" max="22" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
@@ -594,8 +602,8 @@
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
     </row>
-    <row r="3" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="str">
         <f t="array" ref="B4:J12">_xll.acq_sudoku_generate()</f>
         <v/>
@@ -603,14 +611,14 @@
       <c r="C4" s="2" t="str">
         <v/>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="str">
-        <v/>
+      <c r="D4" s="3" t="str">
+        <v/>
+      </c>
+      <c r="E4" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F4" s="2">
+        <v>7</v>
       </c>
       <c r="G4" s="3" t="str">
         <v/>
@@ -618,39 +626,39 @@
       <c r="H4" s="1" t="str">
         <v/>
       </c>
-      <c r="I4" s="2" t="str">
-        <v/>
-      </c>
-      <c r="J4" s="3">
-        <v>8</v>
+      <c r="I4" s="2">
+        <v>9</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <v/>
       </c>
       <c r="L4" s="1">
         <f t="array" ref="L4:T12">_xll.acq_sudoku_solve(B4:J12)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M4" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q4" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S4" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T4" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V4" t="s">
         <v>3</v>
@@ -660,24 +668,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B5" s="4">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="str">
-        <v/>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
       </c>
       <c r="D5" s="6" t="str">
         <v/>
       </c>
-      <c r="E5" s="4">
-        <v>4</v>
+      <c r="E5" s="4" t="str">
+        <v/>
       </c>
       <c r="F5" s="5">
-        <v>9</v>
-      </c>
-      <c r="G5" s="6" t="str">
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>5</v>
       </c>
       <c r="H5" s="4" t="str">
         <v/>
@@ -685,49 +693,49 @@
       <c r="I5" s="5" t="str">
         <v/>
       </c>
-      <c r="J5" s="6">
-        <v>2</v>
+      <c r="J5" s="6" t="str">
+        <v/>
       </c>
       <c r="L5" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M5" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N5" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O5" s="4">
         <v>4</v>
       </c>
       <c r="P5" s="5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R5" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S5" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T5" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="str">
         <v/>
       </c>
       <c r="C6" s="8">
-        <v>3</v>
-      </c>
-      <c r="D6" s="9">
-        <v>8</v>
-      </c>
-      <c r="E6" s="7" t="str">
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="str">
+        <v/>
+      </c>
+      <c r="E6" s="7">
+        <v>6</v>
       </c>
       <c r="F6" s="8" t="str">
         <v/>
@@ -742,37 +750,37 @@
         <v/>
       </c>
       <c r="J6" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L6" s="7">
         <v>2</v>
       </c>
       <c r="M6" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O6" s="7">
         <v>6</v>
       </c>
       <c r="P6" s="8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q6" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R6" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S6" s="8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T6" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="str">
         <v/>
       </c>
@@ -782,67 +790,67 @@
       <c r="D7" s="3" t="str">
         <v/>
       </c>
-      <c r="E7" s="1">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="str">
-        <v/>
+      <c r="E7" s="1" t="str">
+        <v/>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
       </c>
       <c r="G7" s="3" t="str">
         <v/>
       </c>
-      <c r="H7" s="1">
-        <v>9</v>
+      <c r="H7" s="1" t="str">
+        <v/>
       </c>
       <c r="I7" s="2" t="str">
         <v/>
       </c>
-      <c r="J7" s="3">
-        <v>6</v>
+      <c r="J7" s="3" t="str">
+        <v/>
       </c>
       <c r="L7" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M7" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="3">
         <v>4</v>
       </c>
       <c r="R7" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S7" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B8" s="4">
-        <v>1</v>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="str">
+        <v/>
       </c>
       <c r="C8" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D8" s="6">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4" t="str">
-        <v/>
-      </c>
-      <c r="F8" s="5">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="str">
+        <v/>
       </c>
       <c r="G8" s="6" t="str">
         <v/>
@@ -850,43 +858,43 @@
       <c r="H8" s="4" t="str">
         <v/>
       </c>
-      <c r="I8" s="5">
-        <v>8</v>
-      </c>
-      <c r="J8" s="6" t="str">
-        <v/>
+      <c r="I8" s="5" t="str">
+        <v/>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
       </c>
       <c r="L8" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M8" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N8" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O8" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P8" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R8" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S8" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T8" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="7" t="str">
-        <v/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>5</v>
       </c>
       <c r="C9" s="8" t="str">
         <v/>
@@ -894,14 +902,14 @@
       <c r="D9" s="9" t="str">
         <v/>
       </c>
-      <c r="E9" s="7" t="str">
-        <v/>
+      <c r="E9" s="7">
+        <v>1</v>
       </c>
       <c r="F9" s="8" t="str">
         <v/>
       </c>
-      <c r="G9" s="9" t="str">
-        <v/>
+      <c r="G9" s="9">
+        <v>6</v>
       </c>
       <c r="H9" s="7" t="str">
         <v/>
@@ -913,36 +921,36 @@
         <v/>
       </c>
       <c r="L9" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M9" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N9" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O9" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P9" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R9" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S9" s="8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T9" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B10" s="1">
-        <v>6</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="str">
+        <v/>
       </c>
       <c r="C10" s="2" t="str">
         <v/>
@@ -956,64 +964,64 @@
       <c r="F10" s="2" t="str">
         <v/>
       </c>
-      <c r="G10" s="3">
-        <v>5</v>
+      <c r="G10" s="3" t="str">
+        <v/>
       </c>
       <c r="H10" s="1" t="str">
         <v/>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J10" s="3">
         <v>3</v>
       </c>
       <c r="L10" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M10" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N10" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O10" s="1">
         <v>7</v>
       </c>
       <c r="P10" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R10" s="1">
         <v>2</v>
       </c>
       <c r="S10" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T10" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="str">
         <v/>
       </c>
-      <c r="C11" s="5" t="str">
-        <v/>
-      </c>
-      <c r="D11" s="6" t="str">
-        <v/>
-      </c>
-      <c r="E11" s="4">
-        <v>9</v>
+      <c r="C11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <v/>
       </c>
       <c r="F11" s="5" t="str">
         <v/>
       </c>
-      <c r="G11" s="6" t="str">
-        <v/>
+      <c r="G11" s="6">
+        <v>2</v>
       </c>
       <c r="H11" s="4" t="str">
         <v/>
@@ -1025,39 +1033,39 @@
         <v/>
       </c>
       <c r="L11" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N11" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O11" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P11" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R11" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S11" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T11" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="7" t="str">
-        <v/>
-      </c>
-      <c r="C12" s="8">
-        <v>2</v>
+    <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="str">
+        <v/>
       </c>
       <c r="D12" s="9" t="str">
         <v/>
@@ -1071,44 +1079,44 @@
       <c r="G12" s="9" t="str">
         <v/>
       </c>
-      <c r="H12" s="7">
-        <v>6</v>
-      </c>
-      <c r="I12" s="8" t="str">
-        <v/>
-      </c>
-      <c r="J12" s="9" t="str">
-        <v/>
+      <c r="H12" s="7" t="str">
+        <v/>
+      </c>
+      <c r="I12" s="8">
+        <v>4</v>
+      </c>
+      <c r="J12" s="9">
+        <v>7</v>
       </c>
       <c r="L12" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M12" s="8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N12" s="9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O12" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P12" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q12" s="9">
         <v>3</v>
       </c>
       <c r="R12" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S12" s="8">
         <v>4</v>
       </c>
       <c r="T12" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1128,7 +1136,7 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
     </row>
-    <row r="14" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
         <v>6</v>
       </c>
@@ -1152,7 +1160,7 @@
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
     </row>
-    <row r="15" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1172,16 +1180,16 @@
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="str">
         <f t="array" ref="B16:J24">_xll.acq_sudoku_generate(W17)</f>
         <v/>
       </c>
       <c r="C16" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1" t="str">
         <v/>
@@ -1195,8 +1203,8 @@
       <c r="H16" s="1" t="str">
         <v/>
       </c>
-      <c r="I16" s="2">
-        <v>5</v>
+      <c r="I16" s="2" t="str">
+        <v/>
       </c>
       <c r="J16" s="3" t="str">
         <v/>
@@ -1206,10 +1214,10 @@
         <v>7</v>
       </c>
       <c r="M16" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O16" s="1">
         <v>3</v>
@@ -1221,13 +1229,13 @@
         <v>8</v>
       </c>
       <c r="R16" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S16" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T16" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V16" t="s">
         <v>3</v>
@@ -1237,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="str">
         <v/>
       </c>
@@ -1245,16 +1253,16 @@
         <v/>
       </c>
       <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <v/>
       </c>
       <c r="F17" s="5" t="str">
         <v/>
       </c>
       <c r="G17" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H17" s="4" t="str">
         <v/>
@@ -1262,100 +1270,100 @@
       <c r="I17" s="5" t="str">
         <v/>
       </c>
-      <c r="J17" s="6">
-        <v>4</v>
+      <c r="J17" s="6" t="str">
+        <v/>
       </c>
       <c r="L17" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M17" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N17" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O17" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P17" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R17" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S17" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T17" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V17" t="s">
         <v>7</v>
       </c>
       <c r="W17" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="str">
         <v/>
       </c>
       <c r="C18" s="8" t="str">
         <v/>
       </c>
-      <c r="D18" s="9" t="str">
-        <v/>
+      <c r="D18" s="9">
+        <v>9</v>
       </c>
       <c r="E18" s="7" t="str">
         <v/>
       </c>
-      <c r="F18" s="8" t="str">
-        <v/>
+      <c r="F18" s="8">
+        <v>7</v>
       </c>
       <c r="G18" s="9" t="str">
         <v/>
       </c>
-      <c r="H18" s="7" t="str">
-        <v/>
+      <c r="H18" s="7">
+        <v>3</v>
       </c>
       <c r="I18" s="8" t="str">
         <v/>
       </c>
-      <c r="J18" s="9" t="str">
-        <v/>
+      <c r="J18" s="9">
+        <v>8</v>
       </c>
       <c r="L18" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M18" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N18" s="9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O18" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P18" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q18" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R18" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S18" s="8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T18" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="str">
         <v/>
       </c>
@@ -1368,55 +1376,55 @@
       <c r="E19" s="1" t="str">
         <v/>
       </c>
-      <c r="F19" s="2" t="str">
-        <v/>
+      <c r="F19" s="2">
+        <v>5</v>
       </c>
       <c r="G19" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H19" s="1" t="str">
         <v/>
       </c>
-      <c r="I19" s="2" t="str">
-        <v/>
-      </c>
-      <c r="J19" s="3" t="str">
-        <v/>
+      <c r="I19" s="2">
+        <v>6</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3</v>
       </c>
       <c r="L19" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M19" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N19" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O19" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P19" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q19" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R19" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S19" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T19" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B20" s="4">
-        <v>8</v>
-      </c>
-      <c r="C20" s="5">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C20" s="5" t="str">
+        <v/>
       </c>
       <c r="D20" s="6" t="str">
         <v/>
@@ -1427,8 +1435,8 @@
       <c r="F20" s="5" t="str">
         <v/>
       </c>
-      <c r="G20" s="6">
-        <v>3</v>
+      <c r="G20" s="6" t="str">
+        <v/>
       </c>
       <c r="H20" s="4" t="str">
         <v/>
@@ -1440,54 +1448,54 @@
         <v>7</v>
       </c>
       <c r="L20" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M20" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N20" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O20" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P20" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q20" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R20" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S20" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T20" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="str">
         <v/>
       </c>
-      <c r="C21" s="8" t="str">
-        <v/>
+      <c r="C21" s="8">
+        <v>5</v>
       </c>
       <c r="D21" s="9" t="str">
         <v/>
       </c>
-      <c r="E21" s="7">
-        <v>4</v>
+      <c r="E21" s="7" t="str">
+        <v/>
       </c>
       <c r="F21" s="8" t="str">
         <v/>
       </c>
-      <c r="G21" s="9" t="str">
-        <v/>
+      <c r="G21" s="9">
+        <v>4</v>
       </c>
       <c r="H21" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I21" s="8" t="str">
         <v/>
@@ -1496,39 +1504,39 @@
         <v/>
       </c>
       <c r="L21" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M21" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N21" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O21" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P21" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q21" s="9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R21" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S21" s="8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T21" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="str">
-        <v/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>4</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3" t="str">
         <v/>
@@ -1548,67 +1556,67 @@
       <c r="I22" s="2" t="str">
         <v/>
       </c>
-      <c r="J22" s="3" t="str">
-        <v/>
+      <c r="J22" s="3">
+        <v>2</v>
       </c>
       <c r="L22" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M22" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N22" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O22" s="1">
         <v>7</v>
       </c>
       <c r="P22" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R22" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S22" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T22" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="str">
         <v/>
       </c>
       <c r="C23" s="5" t="str">
         <v/>
       </c>
-      <c r="D23" s="6">
-        <v>6</v>
+      <c r="D23" s="6" t="str">
+        <v/>
       </c>
       <c r="E23" s="4" t="str">
         <v/>
       </c>
-      <c r="F23" s="5">
-        <v>3</v>
-      </c>
-      <c r="G23" s="6">
-        <v>5</v>
-      </c>
-      <c r="H23" s="4">
-        <v>9</v>
-      </c>
-      <c r="I23" s="5" t="str">
-        <v/>
-      </c>
-      <c r="J23" s="6" t="str">
-        <v/>
+      <c r="F23" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G23" s="6" t="str">
+        <v/>
+      </c>
+      <c r="H23" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I23" s="5">
+        <v>8</v>
+      </c>
+      <c r="J23" s="6">
+        <v>5</v>
       </c>
       <c r="L23" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23" s="5">
         <v>7</v>
@@ -1617,81 +1625,81 @@
         <v>6</v>
       </c>
       <c r="O23" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P23" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q23" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R23" s="4">
         <v>9</v>
       </c>
       <c r="S23" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T23" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="7" t="str">
-        <v/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="7">
+        <v>1</v>
       </c>
       <c r="C24" s="8" t="str">
         <v/>
       </c>
       <c r="D24" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E24" s="7" t="str">
         <v/>
       </c>
-      <c r="F24" s="8" t="str">
-        <v/>
+      <c r="F24" s="8">
+        <v>6</v>
       </c>
       <c r="G24" s="9" t="str">
         <v/>
       </c>
-      <c r="H24" s="7" t="str">
-        <v/>
-      </c>
-      <c r="I24" s="8">
-        <v>8</v>
+      <c r="H24" s="7">
+        <v>7</v>
+      </c>
+      <c r="I24" s="8" t="str">
+        <v/>
       </c>
       <c r="J24" s="9" t="str">
         <v/>
       </c>
       <c r="L24" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M24" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O24" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P24" s="8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q24" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R24" s="7">
         <v>7</v>
       </c>
       <c r="S24" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T24" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
         <v>4</v>
       </c>
@@ -1715,8 +1723,8 @@
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
     </row>
-    <row r="27" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>9</v>
       </c>
@@ -1774,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>2</v>
       </c>
@@ -1826,7 +1834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>2</v>
       </c>
@@ -1882,7 +1890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1938,7 +1946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
@@ -1994,7 +2002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7">
         <v>8</v>
       </c>
@@ -2050,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>4</v>
       </c>
@@ -2106,7 +2114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>2</v>
       </c>
@@ -2162,7 +2170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
